--- a/app/data/static/samples/inputs/by_department/mozzarella/План по варкам моцарелла 1 Big.xlsx
+++ b/app/data/static/samples/inputs/by_department/mozzarella/План по варкам моцарелла 1 Big.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenijkadaner/Yandex.Disk.localized/master/code/git/2020.10-umalat/umalat/app/data/static/samples/inputs/mozzarella/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenijkadaner/Yandex.Disk.localized/master/code/git/2020.10-umalat/umalat/app/data/static/samples/inputs/by_department/mozzarella/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B1966F-283D-084C-B61F-C8C9CBD8E9A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63997D6-FBF1-DA48-BFBF-D782121DC5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="файл остатки" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,17 @@
     <definedName name="Water_SKU">'Вода SKU'!$A$1:$A$100</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2380,18 +2391,18 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -44718,7 +44729,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="39" t="s">
         <v>632</v>
       </c>
       <c r="B2" s="37" t="s">
@@ -44767,8 +44778,8 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="39"/>
-      <c r="B3" s="43" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="38" t="s">
         <v>635</v>
       </c>
       <c r="C3" s="24" t="s">
@@ -44794,7 +44805,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="39" t="s">
         <v>636</v>
       </c>
       <c r="B4" s="41" t="s">
@@ -44840,8 +44851,8 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="25" t="s">
         <v>163</v>
       </c>
@@ -44865,8 +44876,8 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="38"/>
-      <c r="B6" s="39"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="25" t="s">
         <v>166</v>
       </c>
@@ -44890,8 +44901,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
-      <c r="B7" s="42" t="s">
+      <c r="A7" s="42"/>
+      <c r="B7" s="43" t="s">
         <v>157</v>
       </c>
       <c r="C7" s="26" t="s">
@@ -44917,8 +44928,8 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="26" t="s">
         <v>163</v>
       </c>
@@ -44942,7 +44953,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="39" t="s">
         <v>639</v>
       </c>
       <c r="B11" s="37" t="s">
@@ -44988,8 +44999,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="38"/>
-      <c r="B12" s="43" t="s">
+      <c r="A12" s="42"/>
+      <c r="B12" s="38" t="s">
         <v>635</v>
       </c>
       <c r="C12" s="24" t="s">
@@ -45015,8 +45026,8 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="24" t="s">
         <v>165</v>
       </c>
@@ -45040,8 +45051,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="24" t="s">
         <v>170</v>
       </c>
@@ -45065,8 +45076,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="24" t="s">
         <v>163</v>
       </c>
@@ -45090,8 +45101,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="24" t="s">
         <v>167</v>
       </c>
@@ -45115,8 +45126,8 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="24" t="s">
         <v>165</v>
       </c>
@@ -45140,8 +45151,8 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="24" t="s">
         <v>171</v>
       </c>
@@ -45165,8 +45176,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="24" t="s">
         <v>165</v>
       </c>
@@ -45190,8 +45201,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="24" t="s">
         <v>164</v>
       </c>
@@ -45215,7 +45226,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="39" t="s">
         <v>642</v>
       </c>
       <c r="B23" s="44" t="s">
@@ -45261,8 +45272,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
       <c r="C24" s="27" t="s">
         <v>164</v>
       </c>
@@ -45286,8 +45297,8 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="28" t="s">
         <v>172</v>
       </c>
@@ -45311,8 +45322,8 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="38"/>
-      <c r="B26" s="39"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="28" t="s">
         <v>172</v>
       </c>
@@ -45336,7 +45347,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="38"/>
+      <c r="A27" s="42"/>
       <c r="B27" s="37" t="s">
         <v>633</v>
       </c>
@@ -45363,8 +45374,8 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="42"/>
       <c r="C28" s="22" t="s">
         <v>161</v>
       </c>
@@ -45388,8 +45399,8 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
       <c r="C29" s="22" t="s">
         <v>163</v>
       </c>
@@ -45413,8 +45424,8 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" s="38"/>
-      <c r="B30" s="38"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
       <c r="C30" s="22" t="s">
         <v>161</v>
       </c>
@@ -45438,8 +45449,8 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="38"/>
-      <c r="B31" s="38"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="42"/>
       <c r="C31" s="22" t="s">
         <v>166</v>
       </c>
@@ -45463,8 +45474,8 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" s="38"/>
-      <c r="B32" s="38"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
       <c r="C32" s="22" t="s">
         <v>161</v>
       </c>
@@ -45488,8 +45499,8 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33" s="38"/>
-      <c r="B33" s="39"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="40"/>
       <c r="C33" s="22" t="s">
         <v>161</v>
       </c>
@@ -45513,8 +45524,8 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34" s="38"/>
-      <c r="B34" s="43" t="s">
+      <c r="A34" s="42"/>
+      <c r="B34" s="38" t="s">
         <v>635</v>
       </c>
       <c r="C34" s="24" t="s">
@@ -45540,8 +45551,8 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35" s="38"/>
-      <c r="B35" s="38"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
       <c r="C35" s="24" t="s">
         <v>168</v>
       </c>
@@ -45565,8 +45576,8 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" s="38"/>
-      <c r="B36" s="38"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
       <c r="C36" s="24" t="s">
         <v>166</v>
       </c>
@@ -45590,8 +45601,8 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37" s="38"/>
-      <c r="B37" s="38"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
       <c r="C37" s="24" t="s">
         <v>163</v>
       </c>
@@ -45615,8 +45626,8 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38" s="38"/>
-      <c r="B38" s="38"/>
+      <c r="A38" s="42"/>
+      <c r="B38" s="42"/>
       <c r="C38" s="24" t="s">
         <v>164</v>
       </c>
@@ -45640,8 +45651,8 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A39" s="39"/>
-      <c r="B39" s="39"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="40"/>
       <c r="C39" s="24" t="s">
         <v>164</v>
       </c>
@@ -45665,7 +45676,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A42" s="40" t="s">
+      <c r="A42" s="39" t="s">
         <v>645</v>
       </c>
       <c r="B42" s="41" t="s">
@@ -45711,8 +45722,8 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A43" s="38"/>
-      <c r="B43" s="38"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="42"/>
       <c r="C43" s="25" t="s">
         <v>173</v>
       </c>
@@ -45736,8 +45747,8 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A44" s="38"/>
-      <c r="B44" s="38"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
       <c r="C44" s="25" t="s">
         <v>169</v>
       </c>
@@ -45761,8 +45772,8 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A45" s="38"/>
-      <c r="B45" s="38"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="42"/>
       <c r="C45" s="25" t="s">
         <v>174</v>
       </c>
@@ -45786,8 +45797,8 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A46" s="38"/>
-      <c r="B46" s="38"/>
+      <c r="A46" s="42"/>
+      <c r="B46" s="42"/>
       <c r="C46" s="25" t="s">
         <v>175</v>
       </c>
@@ -45811,8 +45822,8 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A47" s="38"/>
-      <c r="B47" s="38"/>
+      <c r="A47" s="42"/>
+      <c r="B47" s="42"/>
       <c r="C47" s="25" t="s">
         <v>165</v>
       </c>
@@ -45836,8 +45847,8 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A48" s="38"/>
-      <c r="B48" s="38"/>
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
       <c r="C48" s="25" t="s">
         <v>163</v>
       </c>
@@ -45861,8 +45872,8 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A49" s="38"/>
-      <c r="B49" s="39"/>
+      <c r="A49" s="42"/>
+      <c r="B49" s="40"/>
       <c r="C49" s="25" t="s">
         <v>167</v>
       </c>
@@ -45886,8 +45897,8 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A50" s="38"/>
-      <c r="B50" s="42" t="s">
+      <c r="A50" s="42"/>
+      <c r="B50" s="43" t="s">
         <v>157</v>
       </c>
       <c r="C50" s="26" t="s">
@@ -45913,8 +45924,8 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A51" s="38"/>
-      <c r="B51" s="38"/>
+      <c r="A51" s="42"/>
+      <c r="B51" s="42"/>
       <c r="C51" s="26" t="s">
         <v>169</v>
       </c>
@@ -45938,8 +45949,8 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A52" s="38"/>
-      <c r="B52" s="38"/>
+      <c r="A52" s="42"/>
+      <c r="B52" s="42"/>
       <c r="C52" s="26" t="s">
         <v>167</v>
       </c>
@@ -45963,8 +45974,8 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A53" s="38"/>
-      <c r="B53" s="38"/>
+      <c r="A53" s="42"/>
+      <c r="B53" s="42"/>
       <c r="C53" s="26" t="s">
         <v>175</v>
       </c>
@@ -45988,8 +45999,8 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A54" s="38"/>
-      <c r="B54" s="38"/>
+      <c r="A54" s="42"/>
+      <c r="B54" s="42"/>
       <c r="C54" s="26" t="s">
         <v>174</v>
       </c>
@@ -46013,8 +46024,8 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A55" s="38"/>
-      <c r="B55" s="38"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="42"/>
       <c r="C55" s="26" t="s">
         <v>173</v>
       </c>
@@ -46038,8 +46049,8 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A56" s="39"/>
-      <c r="B56" s="39"/>
+      <c r="A56" s="40"/>
+      <c r="B56" s="40"/>
       <c r="C56" s="26" t="s">
         <v>163</v>
       </c>
@@ -46063,7 +46074,7 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A59" s="40" t="s">
+      <c r="A59" s="39" t="s">
         <v>647</v>
       </c>
       <c r="B59" s="41" t="s">
@@ -46109,7 +46120,7 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A62" s="40" t="s">
+      <c r="A62" s="39" t="s">
         <v>649</v>
       </c>
       <c r="B62" s="41" t="s">
@@ -46155,8 +46166,8 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A63" s="38"/>
-      <c r="B63" s="39"/>
+      <c r="A63" s="42"/>
+      <c r="B63" s="40"/>
       <c r="C63" s="25" t="s">
         <v>164</v>
       </c>
@@ -46180,8 +46191,8 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A64" s="39"/>
-      <c r="B64" s="42" t="s">
+      <c r="A64" s="40"/>
+      <c r="B64" s="43" t="s">
         <v>157</v>
       </c>
       <c r="C64" s="26" t="s">
@@ -46207,7 +46218,7 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A67" s="40" t="s">
+      <c r="A67" s="39" t="s">
         <v>649</v>
       </c>
       <c r="B67" s="37" t="s">
@@ -46252,8 +46263,8 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A68" s="38"/>
-      <c r="B68" s="38"/>
+      <c r="A68" s="42"/>
+      <c r="B68" s="42"/>
       <c r="C68" s="22" t="s">
         <v>164</v>
       </c>
@@ -46277,8 +46288,8 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A69" s="38"/>
-      <c r="B69" s="38"/>
+      <c r="A69" s="42"/>
+      <c r="B69" s="42"/>
       <c r="C69" s="22" t="s">
         <v>652</v>
       </c>
@@ -46302,8 +46313,8 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A70" s="38"/>
-      <c r="B70" s="38"/>
+      <c r="A70" s="42"/>
+      <c r="B70" s="42"/>
       <c r="C70" s="22" t="s">
         <v>164</v>
       </c>
@@ -46327,8 +46338,8 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A71" s="39"/>
-      <c r="B71" s="39"/>
+      <c r="A71" s="40"/>
+      <c r="B71" s="40"/>
       <c r="C71" s="22" t="s">
         <v>652</v>
       </c>
@@ -46353,22 +46364,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B2"/>
-    <mergeCell ref="B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B11"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="A11:A20"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="A23:A39"/>
-    <mergeCell ref="B42:B49"/>
-    <mergeCell ref="B50:B56"/>
-    <mergeCell ref="A42:A56"/>
     <mergeCell ref="B67:B71"/>
     <mergeCell ref="A67:A71"/>
     <mergeCell ref="B59"/>
@@ -46376,6 +46371,22 @@
     <mergeCell ref="B62:B63"/>
     <mergeCell ref="B64"/>
     <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="A23:A39"/>
+    <mergeCell ref="B42:B49"/>
+    <mergeCell ref="B50:B56"/>
+    <mergeCell ref="A42:A56"/>
+    <mergeCell ref="B11"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="A11:A20"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="B2"/>
+    <mergeCell ref="B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A4:A8"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -46390,11 +46401,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="16" ySplit="1" topLeftCell="Y50" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="16" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I58" sqref="I58"/>
+      <selection pane="bottomRight" activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -48488,7 +48499,7 @@
     </row>
     <row r="28" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="32">
-        <f t="shared" ref="A28:A50" ca="1" si="20">IF(O28="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(R28)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R28)))))</f>
+        <f t="shared" ref="A28:A30" ca="1" si="20">IF(O28="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(R28)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R28)))))</f>
         <v>6</v>
       </c>
       <c r="B28" s="32" t="s">
@@ -48516,7 +48527,7 @@
         <v>28</v>
       </c>
       <c r="J28" s="11" t="str">
-        <f t="shared" ref="J28:J50" ca="1" si="21">IF(M28="", IF(O28="","",X28+(INDIRECT("S" &amp; ROW() - 1) - S28)),IF(O28="", "", INDIRECT("S" &amp; ROW() - 1) - S28))</f>
+        <f t="shared" ref="J28:J30" ca="1" si="21">IF(M28="", IF(O28="","",X28+(INDIRECT("S" &amp; ROW() - 1) - S28)),IF(O28="", "", INDIRECT("S" &amp; ROW() - 1) - S28))</f>
         <v/>
       </c>
       <c r="K28" s="31">
@@ -48525,23 +48536,23 @@
       <c r="L28" s="11"/>
       <c r="M28" s="12"/>
       <c r="N28" s="18" t="str">
-        <f t="shared" ref="N28:N50" ca="1" si="22">IF(M28="", IF(X28=0, "", X28), IF(V28 = "", "", IF(V28/U28 = 0, "", V28/U28)))</f>
+        <f t="shared" ref="N28:N30" ca="1" si="22">IF(M28="", IF(X28=0, "", X28), IF(V28 = "", "", IF(V28/U28 = 0, "", V28/U28)))</f>
         <v/>
       </c>
       <c r="P28" s="1">
-        <f t="shared" ref="P28:P50" si="23">IF(O28 = "-", -W28,I28)</f>
+        <f t="shared" ref="P28:P30" si="23">IF(O28 = "-", -W28,I28)</f>
         <v>28</v>
       </c>
       <c r="Q28" s="1">
-        <f t="shared" ref="Q28:Q50" ca="1" si="24">IF(O28 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(P28)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(P28)))), 0)</f>
+        <f t="shared" ref="Q28:Q30" ca="1" si="24">IF(O28 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(P28)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(P28)))), 0)</f>
         <v>0</v>
       </c>
       <c r="R28" s="1">
-        <f t="shared" ref="R28:R50" si="25">IF(O28="-",1,0)</f>
+        <f t="shared" ref="R28:R30" si="25">IF(O28="-",1,0)</f>
         <v>0</v>
       </c>
       <c r="S28" s="1">
-        <f t="shared" ref="S28:S50" ca="1" si="26">IF(Q28 = 0, INDIRECT("S" &amp; ROW() - 1), Q28)</f>
+        <f t="shared" ref="S28:S30" ca="1" si="26">IF(Q28 = 0, INDIRECT("S" &amp; ROW() - 1), Q28)</f>
         <v>4982</v>
       </c>
       <c r="T28" s="1" t="str">
@@ -48557,11 +48568,11 @@
         <v>0</v>
       </c>
       <c r="W28" s="1">
-        <f t="shared" ref="W28:W50" si="27">IF(V28 = "", "", V28/U28)</f>
+        <f t="shared" ref="W28:W30" si="27">IF(V28 = "", "", V28/U28)</f>
         <v>0</v>
       </c>
       <c r="X28" s="1" t="str">
-        <f t="shared" ref="X28:X50" ca="1" si="28">IF(O28="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S28)/1000, 0), 1) * 1000)</f>
+        <f t="shared" ref="X28:X30" ca="1" si="28">IF(O28="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S28)/1000, 0), 1) * 1000)</f>
         <v/>
       </c>
     </row>
@@ -48962,7 +48973,7 @@
     </row>
     <row r="34" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="31" t="str">
-        <f t="shared" ref="A34:A50" ca="1" si="29">IF(O34="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(R34)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R34)))))</f>
+        <f t="shared" ref="A34:A36" ca="1" si="29">IF(O34="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(R34)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R34)))))</f>
         <v/>
       </c>
       <c r="B34" s="31" t="s">
@@ -50769,7 +50780,7 @@
     </row>
     <row r="57" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="31" t="str">
-        <f t="shared" ref="A57:A73" ca="1" si="40">IF(O57="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(R57)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R57)))))</f>
+        <f t="shared" ref="A57:A59" ca="1" si="40">IF(O57="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(R57)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R57)))))</f>
         <v/>
       </c>
       <c r="B57" s="31" t="s">
@@ -59724,33 +59735,33 @@
         <v>675</v>
       </c>
       <c r="J39" s="11">
-        <f t="shared" ref="J39:J47" ca="1" si="34">IF(M39="", IF(O39="","",X39+(INDIRECT("S" &amp; ROW() - 1) - S39)),IF(O39="", "", INDIRECT("S" &amp; ROW() - 1) - S39))</f>
+        <f t="shared" ref="J39:J40" ca="1" si="34">IF(M39="", IF(O39="","",X39+(INDIRECT("S" &amp; ROW() - 1) - S39)),IF(O39="", "", INDIRECT("S" &amp; ROW() - 1) - S39))</f>
         <v>11</v>
       </c>
       <c r="K39" s="31"/>
       <c r="L39" s="11"/>
       <c r="M39" s="12"/>
       <c r="N39" s="18">
-        <f t="shared" ref="N39:N47" ca="1" si="35">IF(M39="", IF(X39=0, "", X39), IF(V39 = "", "", IF(V39/U39 = 0, "", V39/U39)))</f>
+        <f t="shared" ref="N39:N40" ca="1" si="35">IF(M39="", IF(X39=0, "", X39), IF(V39 = "", "", IF(V39/U39 = 0, "", V39/U39)))</f>
         <v>850</v>
       </c>
       <c r="O39" s="31" t="s">
         <v>675</v>
       </c>
       <c r="P39" s="1">
-        <f t="shared" ref="P39:P47" si="36">IF(O39 = "-", -W39,I39)</f>
+        <f t="shared" ref="P39:P40" si="36">IF(O39 = "-", -W39,I39)</f>
         <v>0</v>
       </c>
       <c r="Q39" s="1">
-        <f t="shared" ref="Q39:Q47" ca="1" si="37">IF(O39 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(P39)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(P39)))), 0)</f>
+        <f t="shared" ref="Q39:Q40" ca="1" si="37">IF(O39 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(P39)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(P39)))), 0)</f>
         <v>11034</v>
       </c>
       <c r="R39" s="1">
-        <f t="shared" ref="R39:R47" si="38">IF(O39="-",1,0)</f>
+        <f t="shared" ref="R39:R40" si="38">IF(O39="-",1,0)</f>
         <v>1</v>
       </c>
       <c r="S39" s="1">
-        <f t="shared" ref="S39:S47" ca="1" si="39">IF(Q39 = 0, INDIRECT("S" &amp; ROW() - 1), Q39)</f>
+        <f t="shared" ref="S39:S40" ca="1" si="39">IF(Q39 = 0, INDIRECT("S" &amp; ROW() - 1), Q39)</f>
         <v>11034</v>
       </c>
       <c r="T39" s="1" t="str">
@@ -59766,11 +59777,11 @@
         <v>0</v>
       </c>
       <c r="W39" s="1">
-        <f t="shared" ref="W39:W47" si="40">IF(V39 = "", "", V39/U39)</f>
+        <f t="shared" ref="W39:W40" si="40">IF(V39 = "", "", V39/U39)</f>
         <v>0</v>
       </c>
       <c r="X39" s="1">
-        <f t="shared" ref="X39:X47" ca="1" si="41">IF(O39="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S39)/850, 0), 1) * 850)</f>
+        <f t="shared" ref="X39:X40" ca="1" si="41">IF(O39="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S39)/850, 0), 1) * 850)</f>
         <v>850</v>
       </c>
     </row>
@@ -60038,33 +60049,33 @@
         <v>675</v>
       </c>
       <c r="J43" s="11">
-        <f t="shared" ref="J43:J47" ca="1" si="42">IF(M43="", IF(O43="","",X43+(INDIRECT("S" &amp; ROW() - 1) - S43)),IF(O43="", "", INDIRECT("S" &amp; ROW() - 1) - S43))</f>
+        <f t="shared" ref="J43" ca="1" si="42">IF(M43="", IF(O43="","",X43+(INDIRECT("S" &amp; ROW() - 1) - S43)),IF(O43="", "", INDIRECT("S" &amp; ROW() - 1) - S43))</f>
         <v>0</v>
       </c>
       <c r="K43" s="31"/>
       <c r="L43" s="11"/>
       <c r="M43" s="12"/>
       <c r="N43" s="18">
-        <f t="shared" ref="N43:N47" ca="1" si="43">IF(M43="", IF(X43=0, "", X43), IF(V43 = "", "", IF(V43/U43 = 0, "", V43/U43)))</f>
+        <f t="shared" ref="N43" ca="1" si="43">IF(M43="", IF(X43=0, "", X43), IF(V43 = "", "", IF(V43/U43 = 0, "", V43/U43)))</f>
         <v>850</v>
       </c>
       <c r="O43" s="31" t="s">
         <v>675</v>
       </c>
       <c r="P43" s="1">
-        <f t="shared" ref="P43:P47" si="44">IF(O43 = "-", -W43,I43)</f>
+        <f t="shared" ref="P43" si="44">IF(O43 = "-", -W43,I43)</f>
         <v>0</v>
       </c>
       <c r="Q43" s="1">
-        <f t="shared" ref="Q43:Q47" ca="1" si="45">IF(O43 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(P43)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(P43)))), 0)</f>
+        <f t="shared" ref="Q43" ca="1" si="45">IF(O43 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(P43)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(P43)))), 0)</f>
         <v>11884</v>
       </c>
       <c r="R43" s="1">
-        <f t="shared" ref="R43:R47" si="46">IF(O43="-",1,0)</f>
+        <f t="shared" ref="R43" si="46">IF(O43="-",1,0)</f>
         <v>1</v>
       </c>
       <c r="S43" s="1">
-        <f t="shared" ref="S43:S47" ca="1" si="47">IF(Q43 = 0, INDIRECT("S" &amp; ROW() - 1), Q43)</f>
+        <f t="shared" ref="S43" ca="1" si="47">IF(Q43 = 0, INDIRECT("S" &amp; ROW() - 1), Q43)</f>
         <v>11884</v>
       </c>
       <c r="T43" s="1" t="str">
@@ -60080,11 +60091,11 @@
         <v>0</v>
       </c>
       <c r="W43" s="1">
-        <f t="shared" ref="W43:W47" si="48">IF(V43 = "", "", V43/U43)</f>
+        <f t="shared" ref="W43" si="48">IF(V43 = "", "", V43/U43)</f>
         <v>0</v>
       </c>
       <c r="X43" s="1">
-        <f t="shared" ref="X43:X47" ca="1" si="49">IF(O43="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S43)/850, 0), 1) * 850)</f>
+        <f t="shared" ref="X43" ca="1" si="49">IF(O43="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S43)/850, 0), 1) * 850)</f>
         <v>850</v>
       </c>
     </row>
